--- a/biology/Écologie/Suffisance_numérique/Suffisance_numérique.xlsx
+++ b/biology/Écologie/Suffisance_numérique/Suffisance_numérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Suffisance_num%C3%A9rique</t>
+          <t>Suffisance_numérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La suffisance numérique est un ensemble de considérations conceptuelles ayant pour objectif de réduire la consommation de ressources et d’énergie venant de la production, ou de l’utilisation des technologies de l'information et de la communication (TIC).Ce concept a été développé par les chercheurs allemands Tilman Santarius, Jan C. T. Bieser et Vivian Frick, dans la revue Les Annales des télécommunications en mai 2022[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La suffisance numérique est un ensemble de considérations conceptuelles ayant pour objectif de réduire la consommation de ressources et d’énergie venant de la production, ou de l’utilisation des technologies de l'information et de la communication (TIC).Ce concept a été développé par les chercheurs allemands Tilman Santarius, Jan C. T. Bieser et Vivian Frick, dans la revue Les Annales des télécommunications en mai 2022.
 S'inscrivant dans des réflexions autour de l'écologie numérique, la suffisance numérique propose de réduire l'impact environnemental des TIC en s'appuyant sur quatre dimensions : la suffisance matérielle, la suffisance logicielle, la suffisance d'usage et la suffisance économique.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Suffisance_num%C3%A9rique</t>
+          <t>Suffisance_numérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,11 @@
           <t>Suffisance matérielle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La suffisance matérielle a pour objectif de faire baisser la production des appareils électroniques, d'en allonger leur cycle de vie et de simplifier au maximum leur conception pour que ces appareils soient les moins consommateurs en énergie et en matériaux.
-Baisse de production et allongement du cycle de vie des appareils électroniques
-La production d'un appareil moyen implique l'utilisation d'une cinquantaine d'éléments chimiques et de métaux rares dont leur extraction a des impacts néfastes socialement et écologiquement[2].
-Le nombre d'appareils produits augmente considérablement d'années en années. En 2017, 18,4 milliards d'appareils connectés étaient en circulation et il est estimé à 29,3 milliards pour l'année 2023[3].
-Des exemples réalisés dans la presse spécialisée illustrent le problème des cycles de vie court de TIC[4] : incapacité d'utiliser les appareils, car leurs spécifications techniques ne permettent plus de communiquer avec des équipements plus modernes, mises à jour logicielles incompatibles avec les composants des appareils, etc.
-Pour atteindre une suffisance matérielle, il est préconisé de développer des standards assurant un impact environnemental faible durant la production d'appareils électroniques. Cela peut être par exemple avoir un certain pourcentage de matériaux recyclés dans les étapes de fabrication[1]. Il est également préconisé le réemploi d'appareils anciens et l'encouragement des politiques de récupération, reconditionnement et recyclage des appareils. Enfin, pour pouvoir allonger le cycle de vie des TIC le plus longtemps possible, les chercheurs conseillent de définir un droit à la réparation.
 </t>
         </is>
       </c>
@@ -530,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Suffisance_num%C3%A9rique</t>
+          <t>Suffisance_numérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Suffisance matérielle</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Baisse de production et allongement du cycle de vie des appareils électroniques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production d'un appareil moyen implique l'utilisation d'une cinquantaine d'éléments chimiques et de métaux rares dont leur extraction a des impacts néfastes socialement et écologiquement.
+Le nombre d'appareils produits augmente considérablement d'années en années. En 2017, 18,4 milliards d'appareils connectés étaient en circulation et il est estimé à 29,3 milliards pour l'année 2023.
+Des exemples réalisés dans la presse spécialisée illustrent le problème des cycles de vie court de TIC : incapacité d'utiliser les appareils, car leurs spécifications techniques ne permettent plus de communiquer avec des équipements plus modernes, mises à jour logicielles incompatibles avec les composants des appareils, etc.
+Pour atteindre une suffisance matérielle, il est préconisé de développer des standards assurant un impact environnemental faible durant la production d'appareils électroniques. Cela peut être par exemple avoir un certain pourcentage de matériaux recyclés dans les étapes de fabrication. Il est également préconisé le réemploi d'appareils anciens et l'encouragement des politiques de récupération, reconditionnement et recyclage des appareils. Enfin, pour pouvoir allonger le cycle de vie des TIC le plus longtemps possible, les chercheurs conseillent de définir un droit à la réparation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Suffisance_numérique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suffisance_num%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Suffisance logicielle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La suffisance logicielle a pour objectif le développement de logiciels nécessitant le moins de trafic de données, le moins d’électricité et le moins d’usage de composants durant leur cycle de vie.
-En 2017, CISCO estime qu'au moins 1,5 zettabytes de données ont été transférées dans le monde, ce qui correspondrait à 1,5 milliard de disques durs d'1TB[5]. Selon la même étude, ce serait 4,8 zettabytes qui circuleraient en 2022. Cet accroissement du trafic est d'ailleurs une des raisons principales de l'accroissement de la demande énergétique des appareils connectés[6]. Cela contribue également aux développements des bloatwares qui sont aussi des logiciels gourmands en énergie.
-Frugalité des logiciels
-La suffisance logicielle préconise donc une conception minimisant la demande en électricité et la demande en ressources de la machine pendant la phase d'utilisation du logiciel[1]. Des manifestes de conception comme le Karlskrona Manifesto proposent des guides pour atteindre ces objectifs[8]. Aussi, la suffisance logicielle invite à réduire le volume de données à collecter et à transmettre et de s'astreindre aux données strictement nécessaires au service proposé par le logiciel.
+En 2017, CISCO estime qu'au moins 1,5 zettabytes de données ont été transférées dans le monde, ce qui correspondrait à 1,5 milliard de disques durs d'1TB. Selon la même étude, ce serait 4,8 zettabytes qui circuleraient en 2022. Cet accroissement du trafic est d'ailleurs une des raisons principales de l'accroissement de la demande énergétique des appareils connectés. Cela contribue également aux développements des bloatwares qui sont aussi des logiciels gourmands en énergie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suffisance_numérique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suffisance_num%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Suffisance logicielle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Frugalité des logiciels</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La suffisance logicielle préconise donc une conception minimisant la demande en électricité et la demande en ressources de la machine pendant la phase d'utilisation du logiciel. Des manifestes de conception comme le Karlskrona Manifesto proposent des guides pour atteindre ces objectifs. Aussi, la suffisance logicielle invite à réduire le volume de données à collecter et à transmettre et de s'astreindre aux données strictement nécessaires au service proposé par le logiciel.
 Enfin, en lien avec la suffisance matérielle, les logiciels doivent être conçus pour fonctionner sur des appareils plus anciens et ainsi limiter des phénomènes d'obsolescence programmée.
 </t>
         </is>
